--- a/data/image-data.xlsx
+++ b/data/image-data.xlsx
@@ -13,12 +13,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Image</t>
+  </si>
   <si>
     <t>Current</t>
   </si>
   <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
     <t>Angle</t>
+  </si>
+  <si>
+    <t>IMG_5468</t>
+  </si>
+  <si>
+    <t>IMG_5469</t>
+  </si>
+  <si>
+    <t>IMG_5470</t>
+  </si>
+  <si>
+    <t>IMG_5471</t>
+  </si>
+  <si>
+    <t>IMG_5472</t>
+  </si>
+  <si>
+    <t>IMG_5473</t>
+  </si>
+  <si>
+    <t>IMG_5474</t>
+  </si>
+  <si>
+    <t>IMG_5475</t>
+  </si>
+  <si>
+    <t>IMG_5476</t>
+  </si>
+  <si>
+    <t>IMG_5477</t>
+  </si>
+  <si>
+    <t>IMG_5478</t>
+  </si>
+  <si>
+    <t>IMG_5480</t>
+  </si>
+  <si>
+    <t>IMG_5481</t>
+  </si>
+  <si>
+    <t>IMG_5482</t>
+  </si>
+  <si>
+    <t>IMG_5483</t>
+  </si>
+  <si>
+    <t>IMG_5484</t>
+  </si>
+  <si>
+    <t>IMG_5485</t>
+  </si>
+  <si>
+    <t>IMG_5486</t>
+  </si>
+  <si>
+    <t>IMG_5487</t>
+  </si>
+  <si>
+    <t>IMG_5488</t>
+  </si>
+  <si>
+    <t>IMG_5489</t>
+  </si>
+  <si>
+    <t>IMG_5490</t>
+  </si>
+  <si>
+    <t>IMG_5491</t>
+  </si>
+  <si>
+    <t>IMG_5492</t>
+  </si>
+  <si>
+    <t>IMG_5493</t>
+  </si>
+  <si>
+    <t>IMG_5494</t>
+  </si>
+  <si>
+    <t>IMG_5495</t>
+  </si>
+  <si>
+    <t>IMG_5496</t>
+  </si>
+  <si>
+    <t>IMG_5497</t>
+  </si>
+  <si>
+    <t>IMG_5499</t>
+  </si>
+  <si>
+    <t>IMG_5500</t>
+  </si>
+  <si>
+    <t>IMG_5501</t>
+  </si>
+  <si>
+    <t>IMG_5502</t>
+  </si>
+  <si>
+    <t>IMG_5504</t>
+  </si>
+  <si>
+    <t>IMG_5505</t>
+  </si>
+  <si>
+    <t>IMG_5506</t>
+  </si>
+  <si>
+    <t>IMG_5507</t>
+  </si>
+  <si>
+    <t>IMG_5508</t>
+  </si>
+  <si>
+    <t>IMG_5509</t>
+  </si>
+  <si>
+    <t>IMG_5510</t>
   </si>
 </sst>
 </file>
@@ -53,8 +179,12 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,11 +692,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A16" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.8515625"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
@@ -575,185 +708,694 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3">
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>7.5599999999999996</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>0.39000000000000001</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4">
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>10.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>0.70999999999999996</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5">
+      <c r="C5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>13.640000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>0.81000000000000005</v>
       </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6">
+      <c r="C6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>14.27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7">
+      <c r="C7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>15.23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8">
+      <c r="C8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>15.59</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>1.46</v>
       </c>
+      <c r="C9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>16.75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>1.8200000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11">
+      <c r="C11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>8.5899999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>0.40999999999999998</v>
       </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12">
+      <c r="C12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>10.23</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13">
+      <c r="C13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>13.44</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>0.82999999999999996</v>
       </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14">
+      <c r="C14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>14.08</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15">
+      <c r="C15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D15">
+        <v>16.859999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16">
+      <c r="C16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D16">
+        <v>17.109999999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>1.4299999999999999</v>
       </c>
+      <c r="C17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D17">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D18">
+        <v>1.6899999999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
         <v>0.23000000000000001</v>
       </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19">
+      <c r="C19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
         <v>0.53000000000000003</v>
       </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20">
+      <c r="C20" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D20">
+        <v>12.23</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
         <v>0.71999999999999997</v>
       </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21">
+      <c r="C21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D21">
+        <v>14.109999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
         <v>0.79000000000000004</v>
       </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22">
+      <c r="C22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <v>14.73</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23">
+      <c r="C23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>16.550000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24">
+      <c r="C24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
+        <v>17.120000000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
         <v>1.53</v>
       </c>
+      <c r="C25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D25">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D26">
+        <v>1.6899999999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27">
+      <c r="C27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
+        <v>7.4000000000000004</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
         <v>0.35999999999999999</v>
       </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28">
+      <c r="C28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D28">
+        <v>9.9000000000000004</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29">
+      <c r="C29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D29">
+        <v>12.32</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
         <v>0.79000000000000004</v>
       </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30">
-        <v>0.82999999999999996</v>
+      <c r="C30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D30">
+        <v>14.630000000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
         <v>1.1299999999999999</v>
       </c>
+      <c r="C31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D31">
+        <v>16.98</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
         <v>1.3600000000000001</v>
       </c>
+      <c r="C32" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D32">
+        <v>17.59</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
         <v>1.52</v>
       </c>
+      <c r="C33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D33">
+        <v>19.02</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D34">
+        <v>1.6899999999999999</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
         <v>0.23000000000000001</v>
       </c>
+      <c r="C35" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D35">
+        <v>7.71</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
         <v>0.40000000000000002</v>
       </c>
+      <c r="C36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D36">
+        <v>10.800000000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
         <v>0.56999999999999995</v>
       </c>
+      <c r="C37" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D37">
+        <v>12.77</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
         <v>0.80000000000000004</v>
       </c>
+      <c r="C38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <v>14.92</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
         <v>1.1100000000000001</v>
       </c>
+      <c r="C39" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D39">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
         <v>1.26</v>
       </c>
+      <c r="C40" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D40">
+        <v>17.77</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
         <v>1.4399999999999999</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D41">
+        <v>18.02</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/image-data.xlsx
+++ b/data/image-data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Image</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Angle</t>
+  </si>
+  <si>
+    <t>Uncertainty2</t>
   </si>
   <si>
     <t>IMG_5468</t>
@@ -197,6 +200,962 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$41</c:f>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="664968987"/>
+        <c:axId val="664968988"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664968987"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968988"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664968988"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968987"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="4838699" y="5595937"/>
+      <a:ext cx="4676774" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="664968984" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4838699" y="5595937"/>
+        <a:ext cx="4676774" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="$A$1:$E$41">
+  <autoFilter ref="$A$1:$E$41"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Image"/>
+    <tableColumn id="2" name="Current"/>
+    <tableColumn id="3" name="Uncertainty"/>
+    <tableColumn id="4" name="Angle"/>
+    <tableColumn id="5" name="Uncertainty2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,13 +1651,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A15" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.8515625"/>
+    <col bestFit="1" min="2" max="2" width="9.78125"/>
+    <col bestFit="1" min="3" max="3" width="13.3515625"/>
+    <col bestFit="1" min="5" max="5" width="14.421875"/>
+    <col bestFit="1" min="7" max="7" width="11.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -715,12 +1678,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -737,7 +1700,7 @@
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -754,7 +1717,7 @@
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0.39000000000000001</v>
@@ -771,7 +1734,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0.70999999999999996</v>
@@ -788,7 +1751,7 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0.81000000000000005</v>
@@ -805,7 +1768,7 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1.03</v>
@@ -822,7 +1785,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1.21</v>
@@ -839,7 +1802,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1.46</v>
@@ -856,7 +1819,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -873,7 +1836,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0.22</v>
@@ -890,7 +1853,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0.40999999999999998</v>
@@ -907,7 +1870,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0.63</v>
@@ -924,7 +1887,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0.82999999999999996</v>
@@ -941,7 +1904,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>1.1000000000000001</v>
@@ -958,7 +1921,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1.26</v>
@@ -975,7 +1938,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1.4299999999999999</v>
@@ -992,7 +1955,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1009,7 +1972,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0.23000000000000001</v>
@@ -1026,7 +1989,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0.53000000000000003</v>
@@ -1043,7 +2006,7 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0.71999999999999997</v>
@@ -1060,7 +2023,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0.79000000000000004</v>
@@ -1077,7 +2040,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1.05</v>
@@ -1094,7 +2057,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1.2</v>
@@ -1111,7 +2074,7 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>1.53</v>
@@ -1128,7 +2091,7 @@
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1145,7 +2108,7 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0.19</v>
@@ -1162,7 +2125,7 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>0.35999999999999999</v>
@@ -1179,7 +2142,7 @@
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>0.56000000000000005</v>
@@ -1196,7 +2159,7 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>0.79000000000000004</v>
@@ -1213,7 +2176,7 @@
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>1.1299999999999999</v>
@@ -1230,7 +2193,7 @@
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>1.3600000000000001</v>
@@ -1247,7 +2210,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>1.52</v>
@@ -1264,7 +2227,7 @@
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1281,7 +2244,7 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0.23000000000000001</v>
@@ -1298,7 +2261,7 @@
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>0.40000000000000002</v>
@@ -1315,7 +2278,7 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0.56999999999999995</v>
@@ -1332,7 +2295,7 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0.80000000000000004</v>
@@ -1349,7 +2312,7 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>1.1100000000000001</v>
@@ -1366,7 +2329,7 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>1.26</v>
@@ -1383,7 +2346,7 @@
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>1.4399999999999999</v>
@@ -1403,5 +2366,9 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>